--- a/documents/košarka_evidencija.xlsx
+++ b/documents/košarka_evidencija.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="13470" yWindow="3090" windowWidth="12495" windowHeight="10650" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -47,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -71,36 +71,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -196,6 +166,30 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -210,71 +204,41 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,8 +618,8 @@
   </sheetPr>
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -669,26 +633,26 @@
           <t>Evidencija dolazaka na treninge FOI Košarka</t>
         </is>
       </c>
-      <c r="B1" s="14" t="n"/>
-      <c r="C1" s="14" t="n"/>
-      <c r="D1" s="14" t="n"/>
-      <c r="E1" s="14" t="n"/>
-      <c r="F1" s="14" t="n"/>
-      <c r="G1" s="14" t="n"/>
-      <c r="H1" s="14" t="n"/>
-      <c r="I1" s="14" t="n"/>
-      <c r="J1" s="14" t="n"/>
-      <c r="K1" s="14" t="n"/>
-      <c r="L1" s="14" t="n"/>
-      <c r="M1" s="14" t="n"/>
-      <c r="N1" s="14" t="n"/>
-      <c r="O1" s="14" t="n"/>
-      <c r="P1" s="14" t="n"/>
-      <c r="Q1" s="14" t="n"/>
-      <c r="R1" s="14" t="n"/>
-      <c r="S1" s="14" t="n"/>
-      <c r="T1" s="14" t="n"/>
-      <c r="U1" s="15" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="12" t="n"/>
+      <c r="P1" s="12" t="n"/>
+      <c r="Q1" s="12" t="n"/>
+      <c r="R1" s="12" t="n"/>
+      <c r="S1" s="12" t="n"/>
+      <c r="T1" s="12" t="n"/>
+      <c r="U1" s="13" t="n"/>
     </row>
     <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="n"/>
@@ -2343,46 +2307,14 @@
       <c r="U31" s="6" t="n"/>
     </row>
     <row r="32" ht="16.5" customHeight="1">
-      <c r="A32" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E32" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F32" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G32" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H32" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A32" s="4" t="n"/>
+      <c r="B32" s="5" t="n"/>
+      <c r="C32" s="5" t="n"/>
+      <c r="D32" s="5" t="n"/>
+      <c r="E32" s="5" t="n"/>
+      <c r="F32" s="5" t="n"/>
+      <c r="G32" s="5" t="n"/>
+      <c r="H32" s="5" t="n"/>
       <c r="I32" s="5" t="n"/>
       <c r="J32" s="5" t="n"/>
       <c r="K32" s="5" t="n"/>
@@ -2398,46 +2330,14 @@
       <c r="U32" s="6" t="n"/>
     </row>
     <row r="33" ht="16.5" customHeight="1">
-      <c r="A33" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E33" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F33" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G33" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H33" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A33" s="4" t="n"/>
+      <c r="B33" s="5" t="n"/>
+      <c r="C33" s="5" t="n"/>
+      <c r="D33" s="5" t="n"/>
+      <c r="E33" s="5" t="n"/>
+      <c r="F33" s="5" t="n"/>
+      <c r="G33" s="5" t="n"/>
+      <c r="H33" s="5" t="n"/>
       <c r="I33" s="5" t="n"/>
       <c r="J33" s="5" t="n"/>
       <c r="K33" s="5" t="n"/>
@@ -2453,46 +2353,14 @@
       <c r="U33" s="6" t="n"/>
     </row>
     <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H34" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A34" s="4" t="n"/>
+      <c r="B34" s="5" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="5" t="n"/>
+      <c r="E34" s="5" t="n"/>
+      <c r="F34" s="5" t="n"/>
+      <c r="G34" s="5" t="n"/>
+      <c r="H34" s="5" t="n"/>
       <c r="I34" s="5" t="n"/>
       <c r="J34" s="5" t="n"/>
       <c r="K34" s="5" t="n"/>
@@ -2508,46 +2376,14 @@
       <c r="U34" s="6" t="n"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C35" s="9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E35" s="9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F35" s="9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G35" s="9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H35" s="9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A35" s="8" t="n"/>
+      <c r="B35" s="9" t="n"/>
+      <c r="C35" s="9" t="n"/>
+      <c r="D35" s="9" t="n"/>
+      <c r="E35" s="9" t="n"/>
+      <c r="F35" s="9" t="n"/>
+      <c r="G35" s="9" t="n"/>
+      <c r="H35" s="9" t="n"/>
       <c r="I35" s="9" t="n"/>
       <c r="J35" s="9" t="n"/>
       <c r="K35" s="9" t="n"/>

--- a/documents/košarka_evidencija.xlsx
+++ b/documents/košarka_evidencija.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding projects\KosarkaManager\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ACD2A5-EEB5-42A6-823E-212BF0F7A860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81591AE4-D5A7-4095-BF46-646DA19734D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,7 +642,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I31" sqref="I3:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/košarka_evidencija.xlsx
+++ b/documents/košarka_evidencija.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding projects\KosarkaManager\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81591AE4-D5A7-4095-BF46-646DA19734D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90F7F33-D919-4AEF-A195-C74C06D4A97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,12 +145,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF059033"/>
+        <bgColor rgb="FF059033"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -294,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -320,6 +332,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -642,7 +660,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I31" sqref="I3:J31"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,29 +669,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -736,25 +754,25 @@
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="5"/>
@@ -775,25 +793,25 @@
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="5"/>
@@ -814,25 +832,25 @@
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="B5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="5"/>
@@ -853,25 +871,25 @@
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="5"/>
@@ -892,25 +910,25 @@
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="B7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="5"/>
@@ -931,25 +949,25 @@
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="B8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="5"/>
@@ -970,25 +988,25 @@
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="B9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="5"/>
@@ -1009,25 +1027,25 @@
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="B10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="5"/>
@@ -1048,25 +1066,25 @@
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="B11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="5"/>
@@ -1087,25 +1105,25 @@
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="B12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="5"/>
@@ -1126,25 +1144,25 @@
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="B13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="5"/>
@@ -1165,25 +1183,25 @@
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="B14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="5"/>
@@ -1204,25 +1222,25 @@
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="B15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="5"/>
@@ -1243,25 +1261,25 @@
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="B16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I16" s="5"/>
@@ -1282,25 +1300,25 @@
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="B17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="5"/>
@@ -1321,25 +1339,25 @@
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="B18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I18" s="5"/>
@@ -1360,25 +1378,25 @@
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="B19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I19" s="5"/>
@@ -1399,25 +1417,25 @@
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="B20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I20" s="5"/>
@@ -1438,25 +1456,25 @@
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="B21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I21" s="5"/>
@@ -1477,25 +1495,25 @@
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="5" t="s">
+      <c r="B22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I22" s="5"/>
@@ -1516,25 +1534,25 @@
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="B23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I23" s="5"/>
@@ -1555,25 +1573,25 @@
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="B24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I24" s="5"/>
@@ -1594,25 +1612,25 @@
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="B25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I25" s="5"/>
@@ -1633,25 +1651,25 @@
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="5" t="s">
+      <c r="B26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I26" s="5"/>
@@ -1672,25 +1690,25 @@
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="5" t="s">
+      <c r="B27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I27" s="5"/>
@@ -1711,25 +1729,25 @@
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="B28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>2</v>
       </c>
       <c r="I28" s="5"/>
@@ -1750,25 +1768,25 @@
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H29" s="5" t="s">
+      <c r="B29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I29" s="5"/>
@@ -1789,25 +1807,25 @@
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="5" t="s">
+      <c r="B30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I30" s="5"/>
@@ -1828,25 +1846,25 @@
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="5" t="s">
+      <c r="B31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I31" s="5"/>
